--- a/December/Others/Price List Update_01.12.19.xlsx
+++ b/December/Others/Price List Update_01.12.19.xlsx
@@ -1315,7 +1315,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2415,7 +2415,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2861,7 +2861,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2932,7 +2932,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3006,7 +3006,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3077,7 +3077,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3394,7 +3394,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4494,7 +4494,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4940,7 +4940,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5011,7 +5011,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5085,7 +5085,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5156,7 +5156,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5473,7 +5473,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6573,7 +6573,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7019,7 +7019,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7090,7 +7090,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7164,7 +7164,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7235,7 +7235,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -10099,8 +10099,8 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I52" sqref="A1:K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11148,10 +11148,10 @@
         <v>66</v>
       </c>
       <c r="B38" s="49">
-        <v>5470</v>
+        <v>5010</v>
       </c>
       <c r="C38" s="49">
-        <v>5890</v>
+        <v>5390</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="47">
